--- a/biology/Médecine/Augustin_Belloste/Augustin_Belloste.xlsx
+++ b/biology/Médecine/Augustin_Belloste/Augustin_Belloste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Augustin Belloste est un chirurgien français. Né à Paris en 1654, il meurt à Turin le 15 juillet 1730[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augustin Belloste est un chirurgien français. Né à Paris en 1654, il meurt à Turin le 15 juillet 1730.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pratiquant à Paris, il est nommé chirurgien de la mère du roi de Sardaigne Victor-Amédée qui l'attire à Turin. Il contribue alors fortement à la propagation de nouveaux procédés. Il combat ainsi la méthode des pansements trop usitée sur les plaies. 
 Belloste s'est particulièrement illustré dans la réparation des fractures osseuses : il a recommandé l'emploi du trépan pour permettre la reconstitution de collagène sur les os brisés et leur rendre leur forme d'origine. Il utilisait sa Liquor Bellostii, un mélange de mercure et d’eau-forte, dans les soins sur ces blessures.
-Son traité de 1696, Le chirurgien d’hôpital, enseignant la manière douce et facile de guérir promptement toutes sortes de plaies … a connu un énorme succès : il a été traduit dans plusieurs langues [2] et a été réédité en 1707. 
-Les pilules mercurielles qui portent son nom n'ont pas été inventées par lui, mais il en a recommandé l'emploi[3].
+Son traité de 1696, Le chirurgien d’hôpital, enseignant la manière douce et facile de guérir promptement toutes sortes de plaies … a connu un énorme succès : il a été traduit dans plusieurs langues  et a été réédité en 1707. 
+Les pilules mercurielles qui portent son nom n'ont pas été inventées par lui, mais il en a recommandé l'emploi.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Chirurgien de l'hôpital (1696)
 Suite du chirurgien d'hôpital (publié en 1733)
